--- a/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_ResultReport.xlsx
+++ b/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_ResultReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC64_FetchCruiseDetails" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Passengers: 162   |   Crew: 51
-Passengers to crew: 3.18:1
-Launched: 2012   </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">Passengers: 124   |   Crew: 50
 Passengers to crew: 2.48:1
@@ -66,6 +61,44 @@
   </si>
   <si>
     <t>Per day Price</t>
+  </si>
+  <si>
+    <t>₹ 26,018</t>
+  </si>
+  <si>
+    <t>₹ 12,576</t>
+  </si>
+  <si>
+    <t>₹ 5,203</t>
+  </si>
+  <si>
+    <t>₹ 13,009</t>
+  </si>
+  <si>
+    <t>₹ 28,188 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 1,30,093 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 62,880 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 26,018 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 65,046 / 5 nights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passengers: 161   |   Crew: 51
+Passengers to crew: 3.16:1
+Launched: 2010   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 5 ,637  </t>
+  </si>
+  <si>
+    <t>Purdy Arms-Twiga Suite</t>
   </si>
 </sst>
 </file>
@@ -109,9 +142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,17 +463,17 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -452,51 +486,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="75.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -504,74 +617,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
